--- a/doc/SD/FI-SD-交易详细设计.xlsx
+++ b/doc/SD/FI-SD-交易详细设计.xlsx
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
